--- a/FMP/Assets/Resources/Sheets/对话测试表2.xlsx
+++ b/FMP/Assets/Resources/Sheets/对话测试表2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C48CF2-0F20-455A-BCFA-DC2F8D352B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB526D45-F358-4F74-8744-438E9D481017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
@@ -87,11 +88,17 @@
   <connection id="6" xr16:uid="{A827CC8C-7102-4DAA-B7D6-E7E3EC199A80}" name="dialogueRule2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Sheets\mappings\dialogueRule.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="7" xr16:uid="{39088F94-B65E-4B95-A8C8-E02057DABF17}" name="dialogueRule3" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Sheets\mappings\dialogueRule.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="8" xr16:uid="{AB4B7BDA-C165-47EE-A7B8-BEB43BD3D5C3}" name="dialogueRule4" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Sheets\mappings\dialogueRule.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>发言者id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,23 +136,61 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>跳转对话id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数预览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王爷您吉祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奴才参见王爷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免礼金身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多日不见，王爷想小人了吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>想啊，很想啊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>奴才参见王爷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>免礼金身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多日不见，王爷想小人了吗</t>
+    <t>您毛都白了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极霸毛</t>
+  </si>
+  <si>
+    <t>白毛</t>
+  </si>
+  <si>
+    <t>戳啦，极霸毛嘛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戳啦，白毛嘛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -153,30 +198,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王爷您吉祥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您毛都白了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戳啦，极霸毛嘛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戳啦，白毛嘛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极霸毛</t>
-  </si>
-  <si>
-    <t>白毛</t>
+    <t>你的毛白了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你全身的毛都白了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -287,18 +314,24 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="注释" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -332,6 +365,8 @@
                 <xsd:attribute name="content" form="unqualified" type="xsd:string"/>
                 <xsd:attribute name="type" form="unqualified" type="xsd:string"/>
                 <xsd:attribute name="jumpTo" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="function" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="params" form="unqualified" type="xsd:string"/>
               </xsd:complexType>
             </xsd:element>
           </xsd:sequence>
@@ -339,8 +374,8 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="6" Name="dialogues" RootElement="dialogues" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="6" DataBindingLoadMode="1"/>
+  <Map ID="8" Name="dialogues" RootElement="dialogues" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="8" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
@@ -357,6 +392,24 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="config"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
@@ -364,29 +417,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C773295B-CF27-4FDB-8A68-CE83E2CC24A7}" name="表7" displayName="表7" ref="A1:G12" tableType="xml" totalsRowShown="0" connectionId="6">
-  <autoFilter ref="A1:G12" xr:uid="{C773295B-CF27-4FDB-8A68-CE83E2CC24A7}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C773295B-CF27-4FDB-8A68-CE83E2CC24A7}" name="表7" displayName="表7" ref="A1:J12" tableType="xml" totalsRowShown="0" connectionId="8">
+  <autoFilter ref="A1:J12" xr:uid="{C773295B-CF27-4FDB-8A68-CE83E2CC24A7}"/>
+  <tableColumns count="10">
     <tableColumn id="4" xr3:uid="{5FEE14DA-3A69-4CEB-A079-C45A5BFE6686}" uniqueName="id" name="对话id">
-      <xmlColumnPr mapId="6" xpath="/dialogues/line/@id" xmlDataType="string"/>
+      <xmlColumnPr mapId="8" xpath="/dialogues/line/@id" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{843A38CB-CE5B-4CC5-A6FD-13B60729B4E3}" uniqueName="speakerId" name="发言者id">
-      <xmlColumnPr mapId="6" xpath="/dialogues/line/@speakerId" xmlDataType="string"/>
+      <xmlColumnPr mapId="8" xpath="/dialogues/line/@speakerId" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D295F9C4-3D43-48DA-A33C-6842A4E42E72}" uniqueName="2" name="发言者姓名" dataDxfId="1" dataCellStyle="注释">
+    <tableColumn id="2" xr3:uid="{D295F9C4-3D43-48DA-A33C-6842A4E42E72}" uniqueName="2" name="发言者姓名" dataDxfId="3" dataCellStyle="注释">
       <calculatedColumnFormula>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{C388B9B5-0613-49F0-9A1C-27EF43E742AB}" uniqueName="content" name="对话内容">
-      <xmlColumnPr mapId="6" xpath="/dialogues/line/@content" xmlDataType="string"/>
+      <xmlColumnPr mapId="8" xpath="/dialogues/line/@content" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{52C3600D-FEA5-4BC9-A76F-3825DBE65247}" uniqueName="type" name="类型">
-      <xmlColumnPr mapId="6" xpath="/dialogues/line/@type" xmlDataType="string"/>
+      <xmlColumnPr mapId="8" xpath="/dialogues/line/@type" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{8DDBE609-7525-4B2E-92EF-EB3AD37B4190}" uniqueName="jumpTo" name="跳转对话id">
-      <xmlColumnPr mapId="6" xpath="/dialogues/line/@jumpTo" xmlDataType="string"/>
+      <xmlColumnPr mapId="8" xpath="/dialogues/line/@jumpTo" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{CFD9DADD-51E1-4FAC-AD42-7793771F39AC}" uniqueName="7" name="跳转预览" dataDxfId="0" dataCellStyle="注释">
+    <tableColumn id="7" xr3:uid="{CFD9DADD-51E1-4FAC-AD42-7793771F39AC}" uniqueName="7" name="跳转预览" dataDxfId="2" dataCellStyle="注释">
       <calculatedColumnFormula>IF(NOT(ISBLANK(F2)), VLOOKUP(F2,表7[[对话id]:[对话内容]],4,FALSE),   )</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{D9144C52-1783-4DCC-9206-A3111C5EDCF6}" uniqueName="function" name="函数" dataDxfId="1">
+      <xmlColumnPr mapId="8" xpath="/dialogues/line/@function" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{A548F895-8691-4814-A093-76A1DFFFF162}" uniqueName="9" name="函数预览" dataDxfId="0" dataCellStyle="注释">
+      <calculatedColumnFormula>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{DEB61C5D-5628-4CD9-A27D-DC8AB9B5EAA6}" uniqueName="params" name="参数">
+      <xmlColumnPr mapId="8" xpath="/dialogues/line/@params" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -667,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -682,16 +744,20 @@
     <col min="5" max="5" width="6.9140625" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" customWidth="1"/>
     <col min="7" max="7" width="37.25" customWidth="1"/>
+    <col min="8" max="8" width="6.9140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.75" customWidth="1"/>
+    <col min="11" max="11" width="7.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -701,32 +767,46 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="3" t="str">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
         <v>奴才</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5">
         <f>IF(NOT(ISBLANK(F2)), VLOOKUP(F2,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I2" s="3">
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -739,14 +819,19 @@
         <v>奴才</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3">
+        <v>15</v>
+      </c>
+      <c r="G3" s="6">
         <f>IF(NOT(ISBLANK(F3)), VLOOKUP(F3,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I3" s="3">
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A12" si="0">A3+1</f>
         <v>2</v>
@@ -754,19 +839,24 @@
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="3" t="str">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
         <v>王爷</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6">
         <f>IF(NOT(ISBLANK(F4)), VLOOKUP(F4,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I4" s="3">
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -774,19 +864,24 @@
       <c r="B5">
         <v>6</v>
       </c>
-      <c r="C5" s="4" t="str">
+      <c r="C5" s="3" t="str">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
         <v>奴才</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="4">
+        <v>17</v>
+      </c>
+      <c r="G5" s="6">
         <f>IF(NOT(ISBLANK(F5)), VLOOKUP(F5,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I5" s="3">
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -794,19 +889,24 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="str">
+      <c r="C6" s="3" t="str">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
         <v>王爷</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="4">
+        <v>18</v>
+      </c>
+      <c r="G6" s="6">
         <f>IF(NOT(ISBLANK(F6)), VLOOKUP(F6,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I6" s="3">
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -819,14 +919,19 @@
         <v>奴才</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="4">
+        <v>19</v>
+      </c>
+      <c r="G7" s="6">
         <f>IF(NOT(ISBLANK(F7)), VLOOKUP(F7,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I7" s="3">
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -844,12 +949,17 @@
       <c r="F8">
         <v>8</v>
       </c>
-      <c r="G8" s="4" t="str">
+      <c r="G8" s="6" t="str">
         <f>IF(NOT(ISBLANK(F8)), VLOOKUP(F8,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>戳啦，极霸毛嘛</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I8" s="3">
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -867,12 +977,17 @@
       <c r="F9">
         <v>9</v>
       </c>
-      <c r="G9" s="4" t="str">
+      <c r="G9" s="6" t="str">
         <f>IF(NOT(ISBLANK(F9)), VLOOKUP(F9,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>戳啦，白毛嘛</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I9" s="3">
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -880,22 +995,32 @@
       <c r="B10">
         <v>5</v>
       </c>
-      <c r="C10" s="4" t="str">
+      <c r="C10" s="3" t="str">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
         <v>王爷</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F10">
         <v>10</v>
       </c>
-      <c r="G10" s="4" t="str">
+      <c r="G10" s="6" t="str">
         <f>IF(NOT(ISBLANK(F10)), VLOOKUP(F10,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>结束</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <v>Log</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -908,37 +1033,53 @@
         <v>王爷</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
-      <c r="G11" s="4" t="str">
+      <c r="G11" s="6" t="str">
         <f>IF(NOT(ISBLANK(F11)), VLOOKUP(F11,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>结束</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <v>Log</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5" t="e">
+      <c r="C12" s="4" t="e">
         <f>VLOOKUP(表7[[#This Row],[发言者id]], [1]!表4[[id]:[姓名]], 2, FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
         <v>-1</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5">
+      <c r="G12" s="6">
         <f>IF(NOT(ISBLANK(F12)), VLOOKUP(F12,表7[[对话id]:[对话内容]],4,FALSE),   )</f>
         <v>0</v>
       </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <v>End</v>
+      </c>
+      <c r="J12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -956,7 +1097,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -977,7 +1118,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/FMP/Assets/Resources/Sheets/对话测试表2.xlsx
+++ b/FMP/Assets/Resources/Sheets/对话测试表2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB526D45-F358-4F74-8744-438E9D481017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2778C77A-0653-42D8-9BC1-6A7CF5E04CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,10 +389,12 @@
     <sheetNames>
       <sheetName val="人物"/>
       <sheetName val="config"/>
+      <sheetName val="角色表"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -407,10 +409,12 @@
     <sheetNames>
       <sheetName val="Sheet1"/>
       <sheetName val="config"/>
+      <sheetName val="函数对照表"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -445,7 +449,7 @@
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@function" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{A548F895-8691-4814-A093-76A1DFFFF162}" uniqueName="9" name="函数预览" dataDxfId="0" dataCellStyle="注释">
-      <calculatedColumnFormula>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!functions[[id]:[函数名]],2,FALSE), )</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{DEB61C5D-5628-4CD9-A27D-DC8AB9B5EAA6}" uniqueName="params" name="参数">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@params" xmlDataType="string"/>
@@ -732,7 +736,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -801,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="3">
-        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!functions[[id]:[函数名]],2,FALSE), )</f>
         <v>0</v>
       </c>
       <c r="J2" s="1"/>
@@ -826,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="3">
-        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!functions[[id]:[函数名]],2,FALSE), )</f>
         <v>0</v>
       </c>
       <c r="J3" s="1"/>
@@ -851,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="3">
-        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!functions[[id]:[函数名]],2,FALSE), )</f>
         <v>0</v>
       </c>
       <c r="J4" s="1"/>
@@ -876,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="3">
-        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!functions[[id]:[函数名]],2,FALSE), )</f>
         <v>0</v>
       </c>
       <c r="J5" s="1"/>
@@ -901,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="3">
-        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!functions[[id]:[函数名]],2,FALSE), )</f>
         <v>0</v>
       </c>
       <c r="J6" s="1"/>
@@ -926,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="3">
-        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!functions[[id]:[函数名]],2,FALSE), )</f>
         <v>0</v>
       </c>
       <c r="J7" s="1"/>
@@ -954,7 +958,7 @@
         <v>戳啦，极霸毛嘛</v>
       </c>
       <c r="I8" s="3">
-        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!functions[[id]:[函数名]],2,FALSE), )</f>
         <v>0</v>
       </c>
       <c r="J8" s="1"/>
@@ -982,7 +986,7 @@
         <v>戳啦，白毛嘛</v>
       </c>
       <c r="I9" s="3">
-        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!functions[[id]:[函数名]],2,FALSE), )</f>
         <v>0</v>
       </c>
       <c r="J9" s="1"/>
@@ -1013,7 +1017,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="3" t="str">
-        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!functions[[id]:[函数名]],2,FALSE), )</f>
         <v>Log</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -1046,7 +1050,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="3" t="str">
-        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!functions[[id]:[函数名]],2,FALSE), )</f>
         <v>Log</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -1076,7 +1080,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="3" t="str">
-        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!表1[[id]:[函数名]],2,FALSE), )</f>
+        <f>IF(NOT(ISBLANK(表7[[#This Row],[函数]])), VLOOKUP(表7[[#This Row],[函数]],[2]!functions[[id]:[函数名]],2,FALSE), )</f>
         <v>End</v>
       </c>
       <c r="J12" s="1"/>
